--- a/experiment_results/value_results.xlsx
+++ b/experiment_results/value_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Tham lam</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
@@ -478,7 +478,7 @@
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Evolutionary</t>
+          <t>Quy hoạch động</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
@@ -487,6 +487,15 @@
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Di truyền</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Manual</t>
         </is>
       </c>
@@ -549,6 +558,31 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
           <t>optim.</t>
         </is>
       </c>
@@ -575,21 +609,36 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" t="n">
+        <v>90</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O4" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
         <v>100</v>
       </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K4" t="n">
-        <v>100</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="Q4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -600,41 +649,497 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>4.47</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
         <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>47.5</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35</v>
+      </c>
+      <c r="L5" t="n">
         <v>45</v>
       </c>
-      <c r="J5" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>50</v>
-      </c>
-      <c r="L5" t="n">
-        <v>50</v>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>45</v>
+      </c>
+      <c r="O5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Problem 3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>171</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>140</v>
+      </c>
+      <c r="E6" t="n">
+        <v>175</v>
+      </c>
+      <c r="F6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>200</v>
+      </c>
+      <c r="J6" t="n">
+        <v>200</v>
+      </c>
+      <c r="K6" t="n">
+        <v>200</v>
+      </c>
+      <c r="L6" t="n">
+        <v>200</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>200</v>
+      </c>
+      <c r="O6" t="n">
+        <v>200</v>
+      </c>
+      <c r="P6" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Problem 4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200</v>
+      </c>
+      <c r="F7" t="n">
+        <v>200</v>
+      </c>
+      <c r="G7" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>200</v>
+      </c>
+      <c r="J7" t="n">
+        <v>200</v>
+      </c>
+      <c r="K7" t="n">
+        <v>200</v>
+      </c>
+      <c r="L7" t="n">
+        <v>200</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>200</v>
+      </c>
+      <c r="O7" t="n">
+        <v>200</v>
+      </c>
+      <c r="P7" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Problem 5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>175</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>175</v>
+      </c>
+      <c r="E8" t="n">
+        <v>175</v>
+      </c>
+      <c r="F8" t="n">
+        <v>175</v>
+      </c>
+      <c r="G8" t="n">
+        <v>175</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>175</v>
+      </c>
+      <c r="J8" t="n">
+        <v>175</v>
+      </c>
+      <c r="K8" t="n">
+        <v>175</v>
+      </c>
+      <c r="L8" t="n">
+        <v>175</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>175</v>
+      </c>
+      <c r="O8" t="n">
+        <v>175</v>
+      </c>
+      <c r="P8" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Problem 6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>235</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>235</v>
+      </c>
+      <c r="E9" t="n">
+        <v>235</v>
+      </c>
+      <c r="F9" t="n">
+        <v>235</v>
+      </c>
+      <c r="G9" t="n">
+        <v>235</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>235</v>
+      </c>
+      <c r="J9" t="n">
+        <v>235</v>
+      </c>
+      <c r="K9" t="n">
+        <v>235</v>
+      </c>
+      <c r="L9" t="n">
+        <v>235</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>235</v>
+      </c>
+      <c r="O9" t="n">
+        <v>235</v>
+      </c>
+      <c r="P9" t="n">
+        <v>235</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Problem 7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>300</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>300</v>
+      </c>
+      <c r="F10" t="n">
+        <v>300</v>
+      </c>
+      <c r="G10" t="n">
+        <v>300</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>300</v>
+      </c>
+      <c r="J10" t="n">
+        <v>300</v>
+      </c>
+      <c r="K10" t="n">
+        <v>300</v>
+      </c>
+      <c r="L10" t="n">
+        <v>300</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>300</v>
+      </c>
+      <c r="O10" t="n">
+        <v>300</v>
+      </c>
+      <c r="P10" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Problem 8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>225</v>
+      </c>
+      <c r="E11" t="n">
+        <v>225</v>
+      </c>
+      <c r="F11" t="n">
+        <v>225</v>
+      </c>
+      <c r="G11" t="n">
+        <v>225</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>225</v>
+      </c>
+      <c r="J11" t="n">
+        <v>225</v>
+      </c>
+      <c r="K11" t="n">
+        <v>225</v>
+      </c>
+      <c r="L11" t="n">
+        <v>225</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>225</v>
+      </c>
+      <c r="O11" t="n">
+        <v>225</v>
+      </c>
+      <c r="P11" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Problem 9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>275</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>275</v>
+      </c>
+      <c r="E12" t="n">
+        <v>275</v>
+      </c>
+      <c r="F12" t="n">
+        <v>275</v>
+      </c>
+      <c r="G12" t="n">
+        <v>275</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>275</v>
+      </c>
+      <c r="J12" t="n">
+        <v>275</v>
+      </c>
+      <c r="K12" t="n">
+        <v>275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>275</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>275</v>
+      </c>
+      <c r="O12" t="n">
+        <v>275</v>
+      </c>
+      <c r="P12" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Problem 10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>300</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>300</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+      <c r="G13" t="n">
+        <v>300</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>300</v>
+      </c>
+      <c r="J13" t="n">
+        <v>300</v>
+      </c>
+      <c r="K13" t="n">
+        <v>300</v>
+      </c>
+      <c r="L13" t="n">
+        <v>300</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>300</v>
+      </c>
+      <c r="O13" t="n">
+        <v>300</v>
+      </c>
+      <c r="P13" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="L1:P1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
   </mergeCells>

--- a/experiment_results/value_results.xlsx
+++ b/experiment_results/value_results.xlsx
@@ -624,10 +624,10 @@
         <v>50</v>
       </c>
       <c r="L4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
         <v>50</v>
@@ -649,52 +649,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L5" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="N5" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -704,52 +704,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171</v>
+        <v>17.5</v>
       </c>
       <c r="C6" t="n">
-        <v>29.14</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>175</v>
+        <v>17.5</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>36.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="N6" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="O6" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="P6" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -759,52 +759,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>31.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="O7" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="P7" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -814,52 +814,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="F8" t="n">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="G8" t="n">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="J8" t="n">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="K8" t="n">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="L8" t="n">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="O8" t="n">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="P8" t="n">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="Q8" t="n">
-        <v>105</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -869,52 +869,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235</v>
+        <v>111.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5.84</v>
       </c>
       <c r="D9" t="n">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="E9" t="n">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="F9" t="n">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="G9" t="n">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="J9" t="n">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="K9" t="n">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="L9" t="n">
-        <v>235</v>
+        <v>121.2</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="N9" t="n">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="O9" t="n">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="P9" t="n">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="Q9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -924,52 +924,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>300</v>
+        <v>106.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="E10" t="n">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="G10" t="n">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="K10" t="n">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="L10" t="n">
-        <v>300</v>
+        <v>114.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N10" t="n">
-        <v>300</v>
+        <v>111</v>
       </c>
       <c r="O10" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="P10" t="n">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
-        <v>300</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -979,52 +979,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="J11" t="n">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="K11" t="n">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="L11" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="O11" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="P11" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1034,52 +1034,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="G12" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="O12" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="P12" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q12" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
@@ -1089,52 +1089,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.63</v>
       </c>
       <c r="D13" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E13" t="n">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="G13" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="L13" t="n">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>6.71</v>
       </c>
       <c r="N13" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="O13" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="Q13" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/value_results.xlsx
+++ b/experiment_results/value_results.xlsx
@@ -649,19 +649,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>2.24</v>
+        <v>10.44</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
         <v>50</v>
@@ -679,10 +679,10 @@
         <v>50</v>
       </c>
       <c r="L5" t="n">
-        <v>76</v>
+        <v>75.5</v>
       </c>
       <c r="M5" t="n">
-        <v>4.9</v>
+        <v>5.22</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.5</v>
+        <v>5.68</v>
       </c>
       <c r="D6" t="n">
         <v>15</v>
@@ -716,7 +716,7 @@
         <v>17.5</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
         <v>20</v>
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="C7" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="D7" t="n">
         <v>29</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>134</v>
+        <v>123.9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15.69</v>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="E8" t="n">
         <v>134</v>
@@ -859,7 +859,7 @@
         <v>234</v>
       </c>
       <c r="Q8" t="n">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111.2</v>
+        <v>111.6</v>
       </c>
       <c r="C9" t="n">
-        <v>5.84</v>
+        <v>5.54</v>
       </c>
       <c r="D9" t="n">
         <v>105</v>
@@ -899,13 +899,13 @@
         <v>72</v>
       </c>
       <c r="L9" t="n">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="M9" t="n">
-        <v>4.66</v>
+        <v>6.46</v>
       </c>
       <c r="N9" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O9" t="n">
         <v>118</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.2</v>
+        <v>105.8</v>
       </c>
       <c r="C10" t="n">
-        <v>8.029999999999999</v>
+        <v>5.27</v>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
         <v>115</v>
@@ -954,13 +954,13 @@
         <v>57</v>
       </c>
       <c r="L10" t="n">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="N10" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O10" t="n">
         <v>115</v>
@@ -979,46 +979,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>54.3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>84.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="N11" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="O11" t="n">
-        <v>100</v>
+        <v>84.5</v>
       </c>
       <c r="P11" t="n">
         <v>100</v>
@@ -1034,49 +1034,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>111.1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F12" t="n">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L12" t="n">
-        <v>190</v>
+        <v>174.3</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N12" t="n">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="O12" t="n">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="P12" t="n">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="Q12" t="n">
         <v>190</v>
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" t="n">
-        <v>6.63</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>120</v>
       </c>
       <c r="E13" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
         <v>140</v>
@@ -1119,19 +1119,19 @@
         <v>110</v>
       </c>
       <c r="L13" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
-        <v>6.71</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O13" t="n">
         <v>140</v>
       </c>
       <c r="P13" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
         <v>210</v>

--- a/experiment_results/value_results.xlsx
+++ b/experiment_results/value_results.xlsx
@@ -649,43 +649,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>50.5</v>
       </c>
       <c r="C5" t="n">
-        <v>10.44</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
       </c>
       <c r="F5" t="n">
+        <v>55</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50</v>
+      </c>
+      <c r="L5" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N5" t="n">
         <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="n">
-        <v>50</v>
-      </c>
-      <c r="K5" t="n">
-        <v>50</v>
-      </c>
-      <c r="L5" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="N5" t="n">
-        <v>70</v>
       </c>
       <c r="O5" t="n">
         <v>75</v>
@@ -704,16 +704,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>5.68</v>
+        <v>4.9</v>
       </c>
       <c r="D6" t="n">
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
@@ -734,10 +734,10 @@
         <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="N6" t="n">
         <v>35</v>
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="C7" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="D7" t="n">
         <v>29</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>123.9</v>
+        <v>126.6</v>
       </c>
       <c r="C8" t="n">
-        <v>15.69</v>
+        <v>29.21</v>
       </c>
       <c r="D8" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F8" t="n">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="G8" t="n">
         <v>92</v>
@@ -869,16 +869,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111.6</v>
+        <v>112.9</v>
       </c>
       <c r="C9" t="n">
-        <v>5.54</v>
+        <v>6.92</v>
       </c>
       <c r="D9" t="n">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E9" t="n">
-        <v>110</v>
+        <v>117.5</v>
       </c>
       <c r="F9" t="n">
         <v>118</v>
@@ -899,10 +899,10 @@
         <v>72</v>
       </c>
       <c r="L9" t="n">
-        <v>121.1</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
-        <v>6.46</v>
+        <v>6.93</v>
       </c>
       <c r="N9" t="n">
         <v>110</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.8</v>
+        <v>104</v>
       </c>
       <c r="C10" t="n">
-        <v>5.27</v>
+        <v>6.32</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E10" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
         <v>115</v>
@@ -954,10 +954,10 @@
         <v>57</v>
       </c>
       <c r="L10" t="n">
-        <v>114.6</v>
+        <v>114.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="N10" t="n">
         <v>109</v>
@@ -966,7 +966,7 @@
         <v>115</v>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q10" t="n">
         <v>118</v>
@@ -979,19 +979,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.3</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>4.78</v>
+        <v>5.04</v>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="n">
         <v>23</v>
@@ -1009,16 +1009,16 @@
         <v>23</v>
       </c>
       <c r="L11" t="n">
-        <v>84.5</v>
+        <v>93.8</v>
       </c>
       <c r="M11" t="n">
-        <v>15.5</v>
+        <v>12.4</v>
       </c>
       <c r="N11" t="n">
         <v>69</v>
       </c>
       <c r="O11" t="n">
-        <v>84.5</v>
+        <v>100</v>
       </c>
       <c r="P11" t="n">
         <v>100</v>
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.1</v>
+        <v>106.1</v>
       </c>
       <c r="C12" t="n">
-        <v>17.55</v>
+        <v>4.53</v>
       </c>
       <c r="D12" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>107</v>
+        <v>107.5</v>
       </c>
       <c r="F12" t="n">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="G12" t="n">
         <v>130</v>
@@ -1064,16 +1064,16 @@
         <v>130</v>
       </c>
       <c r="L12" t="n">
-        <v>174.3</v>
+        <v>172.5</v>
       </c>
       <c r="M12" t="n">
-        <v>4.2</v>
+        <v>5.95</v>
       </c>
       <c r="N12" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O12" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P12" t="n">
         <v>177</v>
@@ -1092,13 +1092,13 @@
         <v>132</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>120</v>
       </c>
       <c r="E13" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F13" t="n">
         <v>140</v>
@@ -1119,16 +1119,16 @@
         <v>110</v>
       </c>
       <c r="L13" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="N13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O13" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="P13" t="n">
         <v>150</v>
